--- a/biology/Zoologie/Esturgeon_à_museau_court/Esturgeon_à_museau_court.xlsx
+++ b/biology/Zoologie/Esturgeon_à_museau_court/Esturgeon_à_museau_court.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esturgeon_%C3%A0_museau_court</t>
+          <t>Esturgeon_à_museau_court</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acipenser brevirostrum, communément appelé esturgeon à museau court, est un petit esturgeon d'Amérique du Nord qui se rencontre dans 16 à 19 grands systèmes fluviaux et estuariens le long de la côte atlantique du fleuve Saint-Jean au Nouveau-Brunswick (Canada) jusqu'au fleuve Saint Johns en Floride (États-Unis)[2],[3]. Les populations peuvent être isolées, comme en témoigne l'absence d'enregistrements dans la mer en dehors de l'influence de leur rivière d'origine et les captures minimales d'individus marqués en dehors de la rivière dans laquelle ils ont été marqués[2],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acipenser brevirostrum, communément appelé esturgeon à museau court, est un petit esturgeon d'Amérique du Nord qui se rencontre dans 16 à 19 grands systèmes fluviaux et estuariens le long de la côte atlantique du fleuve Saint-Jean au Nouveau-Brunswick (Canada) jusqu'au fleuve Saint Johns en Floride (États-Unis),. Les populations peuvent être isolées, comme en témoigne l'absence d'enregistrements dans la mer en dehors de l'influence de leur rivière d'origine et les captures minimales d'individus marqués en dehors de la rivière dans laquelle ils ont été marqués,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esturgeon_%C3%A0_museau_court</t>
+          <t>Esturgeon_à_museau_court</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esturgeon_%C3%A0_museau_court</t>
+          <t>Esturgeon_à_museau_court</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>État de conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce en danger de disparition aux États-Unis, après avoir été reconnue comme telle en 1967 et elle est considérée comme vulnérable au Canada[3],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce en danger de disparition aux États-Unis, après avoir été reconnue comme telle en 1967 et elle est considérée comme vulnérable au Canada,.
 </t>
         </is>
       </c>
